--- a/api/public/assets/himanshu.xlsx
+++ b/api/public/assets/himanshu.xlsx
@@ -37,7 +37,7 @@
     <x:t>9638527410</x:t>
   </x:si>
   <x:si>
-    <x:t>Fri Nov 16 2018 15:29:10 GMT+0530 (India Standard Time)</x:t>
+    <x:t>Mon Nov 19 2018 18:58:21 GMT+0530 (India Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/api/public/assets/himanshu.xlsx
+++ b/api/public/assets/himanshu.xlsx
@@ -37,7 +37,7 @@
     <x:t>9638527410</x:t>
   </x:si>
   <x:si>
-    <x:t>Mon Nov 19 2018 18:58:21 GMT+0530 (India Standard Time)</x:t>
+    <x:t>Tue Nov 20 2018 19:41:09 GMT+0530 (India Standard Time)</x:t>
   </x:si>
 </x:sst>
 </file>
